--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/国外部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/国外部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,806 +538,484 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>988.35</v>
+        <v>2377.8688616173</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>3917.01</v>
+        <v>31934.3734470527</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>215.17</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50.84</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>569.89</v>
+        <v>4071.8999029698</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>-1267.47</v>
+        <v>1814.201419</v>
       </c>
       <c r="R2" t="n">
-        <v>4473.79</v>
+        <v>39976.8640000375</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>-221.479630602347</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>603.71138511</v>
+        <v>1530</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6249.7193562</v>
+        <v>25057</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>192.5179042776</v>
+        <v>3026</v>
       </c>
       <c r="K3" t="n">
-        <v>13.2721534824</v>
+        <v>30</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>208.44854739</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>3211</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-71</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>446.2230024</v>
+        <v>1417</v>
       </c>
       <c r="R3" t="n">
-        <v>7713.89234886</v>
+        <v>38492</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>4291</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1846.9041213</v>
+        <v>4529</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>9686.001987</v>
+        <v>6069</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>501.9060113348</v>
+        <v>2527</v>
       </c>
       <c r="K4" t="n">
-        <v>40.4117195152</v>
+        <v>43</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-12.60371898</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>3919</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-128</v>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>-1152.770898</v>
+        <v>2624</v>
       </c>
       <c r="R4" t="n">
-        <v>10909.84922217</v>
+        <v>24947</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>5363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>172.376526896</v>
+        <v>6531.3273038839</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>17080.335552</v>
+        <v>26605.9559718521</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-1572.1319190085</v>
+        <v>3278.51177240102</v>
       </c>
       <c r="K5" t="n">
-        <v>-100.3344884635</v>
+        <v>22.0711830263392</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>149.400626704</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>4517.43077311919</v>
+      </c>
+      <c r="N5" t="n">
+        <v>156.107250514192</v>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>799.368295152</v>
+        <v>2670.96359421264</v>
       </c>
       <c r="R5" t="n">
-        <v>16529.01459328</v>
+        <v>39874.1738650159</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>-3908.19398399351</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4242.790175173</v>
+        <v>5115</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>16958.129672</v>
+        <v>7181</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>845.165704614</v>
+        <v>5334</v>
       </c>
       <c r="K6" t="n">
-        <v>-23.1309154553</v>
+        <v>260</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>926.128043896</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>4903</v>
+      </c>
+      <c r="N6" t="n">
+        <v>85</v>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1064.358557878</v>
+        <v>2303</v>
       </c>
       <c r="R6" t="n">
-        <v>24013.4412381057</v>
+        <v>31216</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>6035</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>10825</v>
+        <v>2096.60612452363</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>19692</v>
+        <v>-21390.4919214396</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>790</v>
+        <v>5498.44643995599</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>14.2289876638</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>1421</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>11297.9840178457</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2474.92549883418</v>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>-393</v>
+        <v>3147.2036829948</v>
       </c>
       <c r="R7" t="n">
-        <v>32369</v>
+        <v>2644.62068550228</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>-494.282144876224</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>8154</v>
+        <v>11838.7955126445</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>32618</v>
+        <v>-29469.3559550718</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>168</v>
+        <v>3122.48117765953</v>
       </c>
       <c r="K8" t="n">
-        <v>-187</v>
+        <v>14.6123325961256</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>1201</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>14427.1842680231</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6125.55687636587</v>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>1470</v>
+        <v>2697.10042084623</v>
       </c>
       <c r="R8" t="n">
-        <v>43423</v>
+        <v>14442.2698384212</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>5685.89520535758</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>2401</v>
+        <v>-229</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>29119</v>
+        <v>6179</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2411</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>3336</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>3716</v>
+        <v>6881</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>2820</v>
+        <v>3492</v>
       </c>
       <c r="R9" t="n">
-        <v>41752</v>
+        <v>25538</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1286</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-1922</v>
+        <v>3897.33954838871</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>27216</v>
+        <v>1249.84015281377</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>404.739811574454</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-24.8516164974138</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>2999</v>
+        <v>6383.9780414275</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>3448</v>
+        <v>1183.82876935559</v>
       </c>
       <c r="R10" t="n">
-        <v>27211</v>
+        <v>24623.8394414291</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>-4530</v>
+        <v>7442.10858207084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>2377.8688616173</v>
+        <v>-1352.73814524881</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>31934.3734470527</v>
+        <v>-1330.77075059093</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5451.82399951732</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8.86009359235435</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>4071.8999029698</v>
+        <v>6740.02962401207</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>1814.201419</v>
+        <v>702.396392166611</v>
       </c>
       <c r="R11" t="n">
-        <v>39976.8640000375</v>
+        <v>13812.1538073547</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>-221.479630602347</v>
+        <v>-1758.38621567569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>-0.508579</v>
+      </c>
       <c r="E12" t="n">
-        <v>1530</v>
+        <v>4488.71539304924</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>25057</v>
+        <v>1931.74147557777</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3026</v>
+        <v>8216.16434427704</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>4.24181962826636</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>3211</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-71</v>
-      </c>
+        <v>7581.99869285268</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>1417</v>
+        <v>3891.02591029433</v>
       </c>
       <c r="R12" t="n">
-        <v>38492</v>
+        <v>43884.5720871003</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>4529</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>6069</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2527</v>
-      </c>
-      <c r="K13" t="n">
-        <v>43</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>3919</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-128</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>2624</v>
-      </c>
-      <c r="R13" t="n">
-        <v>24947</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>5363</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>6531.3273038839</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>26605.9559718521</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3278.51177240102</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.0711830263392</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>4517.43077311919</v>
-      </c>
-      <c r="N14" t="n">
-        <v>156.107250514192</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>2670.96359421264</v>
-      </c>
-      <c r="R14" t="n">
-        <v>39874.1738650159</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>-3908.19398399351</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>5115</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>7181</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5334</v>
-      </c>
-      <c r="K15" t="n">
-        <v>260</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>4903</v>
-      </c>
-      <c r="N15" t="n">
-        <v>85</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>2303</v>
-      </c>
-      <c r="R15" t="n">
-        <v>31216</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>2096.60612452363</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>-21390.4919214396</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5498.44643995599</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.2289876638</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>11297.9840178457</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2474.92549883418</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>3147.2036829948</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2644.62068550228</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>-494.282144876224</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>11838.7955126445</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>-29469.3559550718</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3122.48117765953</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14.6123325961256</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>14427.1842680231</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6125.55687636587</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>2697.10042084623</v>
-      </c>
-      <c r="R17" t="n">
-        <v>14442.2698384212</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>5685.89520535758</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>-229</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>6179</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3336</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>6881</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>3492</v>
-      </c>
-      <c r="R18" t="n">
-        <v>25538</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>3897.33954838871</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1249.84015281377</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>404.739811574454</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-24.8516164974138</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>6383.9780414275</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>1183.82876935559</v>
-      </c>
-      <c r="R19" t="n">
-        <v>24623.8394414291</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>7442.10858207084</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>-1352.73814524881</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>-1330.77075059093</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5451.82399951732</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-8.86009359235435</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>6740.02962401207</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>702.396392166611</v>
-      </c>
-      <c r="R20" t="n">
-        <v>13812.1538073547</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>-1758.38621567569</v>
+        <v>8442.561041943431</v>
       </c>
     </row>
   </sheetData>
